--- a/data/trans_camb/P28B_2_R-Urba-trans_camb.xlsx
+++ b/data/trans_camb/P28B_2_R-Urba-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N19"/>
+  <dimension ref="A1:K20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -526,9 +526,6 @@
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
-    <col width="14" customWidth="1" min="12" max="12"/>
-    <col width="14" customWidth="1" min="13" max="13"/>
-    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -545,23 +542,20 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
+      <c r="G1" s="3" t="n"/>
       <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
       <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="L1" s="3" t="n"/>
-      <c r="M1" s="3" t="n"/>
-      <c r="N1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -583,47 +577,32 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
-          <t>Mz1/M1</t>
+          <t>M2/M1</t>
         </is>
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
+          <t>M3/M1</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M4/M1</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
           <t>M2/M1</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3/M1</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4/M1</t>
-        </is>
-      </c>
-      <c r="J2" s="3" t="inlineStr">
-        <is>
-          <t>Mz1/M1</t>
-        </is>
-      </c>
-      <c r="K2" s="3" t="inlineStr">
-        <is>
-          <t>M2/M1</t>
-        </is>
-      </c>
-      <c r="L2" s="3" t="inlineStr">
-        <is>
-          <t>M3/M1</t>
-        </is>
-      </c>
-      <c r="M2" s="3" t="inlineStr">
-        <is>
-          <t>M4/M1</t>
-        </is>
-      </c>
-      <c r="N2" s="3" t="inlineStr">
-        <is>
-          <t>Mz1/M1</t>
         </is>
       </c>
     </row>
@@ -639,9 +618,6 @@
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
-      <c r="L3" s="2" t="n"/>
-      <c r="M3" s="2" t="n"/>
-      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -656,62 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-5,01</t>
+          <t>-4,91</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-9,87</t>
+          <t>-9,54</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-10,54</t>
+          <t>-10,22</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-8,04</t>
+          <t>-11,03</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-11,29</t>
+          <t>-12,83</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-12,82</t>
+          <t>-13,59</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>-13,73</t>
+          <t>-8,1</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>-7,95</t>
+          <t>-11,25</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>-8,29</t>
-        </is>
-      </c>
-      <c r="L4" s="2" t="inlineStr">
-        <is>
-          <t>-11,4</t>
-        </is>
-      </c>
-      <c r="M4" s="2" t="inlineStr">
-        <is>
-          <t>-12,2</t>
-        </is>
-      </c>
-      <c r="N4" s="2" t="inlineStr">
-        <is>
-          <t>-8,06</t>
+          <t>-11,97</t>
         </is>
       </c>
     </row>
@@ -724,62 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-8,84; -0,65</t>
+          <t>-8,98; -1,21</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-13,58; -6,36</t>
+          <t>-13,22; -5,94</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-13,86; -7,03</t>
+          <t>-13,8; -6,67</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-12,1; -4,54</t>
+          <t>-14,69; -7,18</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-15,03; -7,29</t>
+          <t>-16,21; -9,46</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-16,35; -9,22</t>
+          <t>-16,98; -10,16</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-17,34; -10,43</t>
+          <t>-10,95; -5,64</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-11,61; -4,24</t>
+          <t>-14,14; -8,93</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-10,95; -5,54</t>
-        </is>
-      </c>
-      <c r="L5" s="2" t="inlineStr">
-        <is>
-          <t>-14,27; -8,95</t>
-        </is>
-      </c>
-      <c r="M5" s="2" t="inlineStr">
-        <is>
-          <t>-14,7; -9,65</t>
-        </is>
-      </c>
-      <c r="N5" s="2" t="inlineStr">
-        <is>
-          <t>-10,87; -5,42</t>
+          <t>-14,5; -9,47</t>
         </is>
       </c>
     </row>
@@ -792,62 +738,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-30,87%</t>
+          <t>-30,24%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-60,79%</t>
+          <t>-58,75%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-64,92%</t>
+          <t>-62,94%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-49,5%</t>
+          <t>-51,17%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-52,38%</t>
+          <t>-59,5%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-59,47%</t>
+          <t>-63,02%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>-63,66%</t>
+          <t>-42,63%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>-36,88%</t>
+          <t>-59,15%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>-43,6%</t>
-        </is>
-      </c>
-      <c r="L6" s="2" t="inlineStr">
-        <is>
-          <t>-59,96%</t>
-        </is>
-      </c>
-      <c r="M6" s="2" t="inlineStr">
-        <is>
-          <t>-64,14%</t>
-        </is>
-      </c>
-      <c r="N6" s="2" t="inlineStr">
-        <is>
-          <t>-42,39%</t>
+          <t>-62,96%</t>
         </is>
       </c>
     </row>
@@ -860,62 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-48,81; -4,11</t>
+          <t>-49,39; -7,91</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-74,37; -43,79</t>
+          <t>-72,35; -39,11</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-76,88; -47,49</t>
+          <t>-75,55; -44,38</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-65,31; -30,71</t>
+          <t>-61,63; -35,92</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-64,17; -38,03</t>
+          <t>-69,33; -47,18</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-68,27; -47,46</t>
+          <t>-71,33; -50,12</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-72,97; -52,61</t>
+          <t>-53,19; -31,0</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-49,92; -21,33</t>
+          <t>-68,12; -49,64</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-53,49; -31,36</t>
-        </is>
-      </c>
-      <c r="L7" s="2" t="inlineStr">
-        <is>
-          <t>-68,46; -50,59</t>
-        </is>
-      </c>
-      <c r="M7" s="2" t="inlineStr">
-        <is>
-          <t>-72,04; -55,11</t>
-        </is>
-      </c>
-      <c r="N7" s="2" t="inlineStr">
-        <is>
-          <t>-51,59; -29,45</t>
+          <t>-70,97; -53,43</t>
         </is>
       </c>
     </row>
@@ -932,62 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-8,92</t>
+          <t>-8,71</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-9,57</t>
+          <t>-9,36</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-11,11</t>
+          <t>-10,71</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-5,37</t>
+          <t>-6,85</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-7,43</t>
+          <t>-9,42</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-9,56</t>
+          <t>-8,71</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>-9,19</t>
+          <t>-7,78</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-4,85</t>
+          <t>-9,4</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>-8,18</t>
-        </is>
-      </c>
-      <c r="L8" s="2" t="inlineStr">
-        <is>
-          <t>-9,58</t>
-        </is>
-      </c>
-      <c r="M8" s="2" t="inlineStr">
-        <is>
-          <t>-10,16</t>
-        </is>
-      </c>
-      <c r="N8" s="2" t="inlineStr">
-        <is>
-          <t>-5,21</t>
+          <t>-9,72</t>
         </is>
       </c>
     </row>
@@ -1000,62 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-12,78; -5,2</t>
+          <t>-12,68; -5,07</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-13,06; -5,8</t>
+          <t>-13,09; -5,71</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-14,34; -7,4</t>
+          <t>-14,3; -6,81</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-10,21; 1,29</t>
+          <t>-11,34; -2,31</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-11,8; -2,94</t>
+          <t>-13,19; -5,5</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-13,51; -6,08</t>
+          <t>-12,75; -4,0</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-12,88; -4,97</t>
+          <t>-10,73; -4,61</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-10,11; 2,42</t>
+          <t>-12,15; -6,72</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-10,95; -5,32</t>
-        </is>
-      </c>
-      <c r="L9" s="2" t="inlineStr">
-        <is>
-          <t>-12,3; -7,11</t>
-        </is>
-      </c>
-      <c r="M9" s="2" t="inlineStr">
-        <is>
-          <t>-12,8; -7,28</t>
-        </is>
-      </c>
-      <c r="N9" s="2" t="inlineStr">
-        <is>
-          <t>-9,04; -0,99</t>
+          <t>-12,45; -6,8</t>
         </is>
       </c>
     </row>
@@ -1068,62 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-59,29%</t>
+          <t>-57,98%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-63,6%</t>
+          <t>-62,3%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-73,84%</t>
+          <t>-71,34%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-35,7%</t>
+          <t>-38,1%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-41,32%</t>
+          <t>-52,34%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-53,14%</t>
+          <t>-48,42%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>-51,07%</t>
+          <t>-47,09%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>-26,93%</t>
+          <t>-56,92%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>-49,46%</t>
-        </is>
-      </c>
-      <c r="L10" s="2" t="inlineStr">
-        <is>
-          <t>-57,95%</t>
-        </is>
-      </c>
-      <c r="M10" s="2" t="inlineStr">
-        <is>
-          <t>-61,43%</t>
-        </is>
-      </c>
-      <c r="N10" s="2" t="inlineStr">
-        <is>
-          <t>-31,52%</t>
+          <t>-58,83%</t>
         </is>
       </c>
     </row>
@@ -1136,62 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-73,32; -37,38</t>
+          <t>-74,08; -37,09</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-76,88; -45,5</t>
+          <t>-75,56; -43,48</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-84,21; -54,6</t>
+          <t>-83,42; -51,55</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-60,75; 10,75</t>
+          <t>-56,01; -13,66</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-58,99; -17,74</t>
+          <t>-65,41; -34,17</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-67,06; -37,46</t>
+          <t>-63,36; -22,06</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-64,31; -30,98</t>
+          <t>-59,33; -30,46</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-51,13; 15,84</t>
+          <t>-66,79; -43,74</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-61,29; -35,18</t>
-        </is>
-      </c>
-      <c r="L11" s="2" t="inlineStr">
-        <is>
-          <t>-68,01; -46,67</t>
-        </is>
-      </c>
-      <c r="M11" s="2" t="inlineStr">
-        <is>
-          <t>-70,38; -47,34</t>
-        </is>
-      </c>
-      <c r="N11" s="2" t="inlineStr">
-        <is>
-          <t>-51,24; -5,99</t>
+          <t>-69,7; -44,78</t>
         </is>
       </c>
     </row>
@@ -1208,62 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-1,24</t>
+          <t>-1,7</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-5,41</t>
+          <t>-5,19</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-8,45</t>
+          <t>-8,53</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>-4,97</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-5,33</t>
+          <t>-0,17</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,14</t>
+          <t>-9,45</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>-9,39</t>
+          <t>-3,31</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>-2,73</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>-3,26</t>
-        </is>
-      </c>
-      <c r="L12" s="2" t="inlineStr">
-        <is>
-          <t>-2,69</t>
-        </is>
-      </c>
-      <c r="M12" s="2" t="inlineStr">
-        <is>
-          <t>-8,92</t>
-        </is>
-      </c>
-      <c r="N12" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
+          <t>-8,99</t>
         </is>
       </c>
     </row>
@@ -1276,62 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-8,53; 6,8</t>
+          <t>-8,73; 5,56</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-12,02; 0,66</t>
+          <t>-11,91; 0,78</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-14,52; -2,84</t>
+          <t>-14,6; -3,34</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-12,08; 2,7</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-13,35; 2,4</t>
+          <t>-7,55; 8,49</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-7,1; 8,26</t>
+          <t>-16,04; -2,91</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-15,22; -3,34</t>
+          <t>-8,68; 2,13</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,17; 2,82</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-8,48; 1,95</t>
-        </is>
-      </c>
-      <c r="L13" s="2" t="inlineStr">
-        <is>
-          <t>-8,27; 1,83</t>
-        </is>
-      </c>
-      <c r="M13" s="2" t="inlineStr">
-        <is>
-          <t>-13,69; -4,3</t>
-        </is>
-      </c>
-      <c r="N13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
+          <t>-13,15; -4,65</t>
         </is>
       </c>
     </row>
@@ -1344,62 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-12,08%</t>
+          <t>-16,54%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-52,59%</t>
+          <t>-50,42%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-82,06%</t>
+          <t>-82,92%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-32,27%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>-34,62%</t>
+          <t>-1,11%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>0,88%</t>
+          <t>-61,43%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>-61,0%</t>
+          <t>-25,87%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-21,29%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>-25,44%</t>
-        </is>
-      </c>
-      <c r="L14" s="2" t="inlineStr">
-        <is>
-          <t>-21,0%</t>
-        </is>
-      </c>
-      <c r="M14" s="2" t="inlineStr">
-        <is>
-          <t>-69,61%</t>
-        </is>
-      </c>
-      <c r="N14" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
+          <t>-70,22%</t>
         </is>
       </c>
     </row>
@@ -1412,62 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-62,63; 105,68</t>
+          <t>-64,46; 83,61</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-81,6; 30,21</t>
+          <t>-81,55; 17,4</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-100,0; -3,61</t>
+          <t>-100,0; -20,33</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-63,26; 22,51</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-66,44; 24,96</t>
+          <t>-42,43; 75,81</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-39,57; 77,37</t>
+          <t>-81,64; -16,29</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-80,91; -26,61</t>
+          <t>-56,07; 22,53</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-48,18; 33,94</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-54,42; 23,99</t>
-        </is>
-      </c>
-      <c r="L15" s="2" t="inlineStr">
-        <is>
-          <t>-51,36; 19,07</t>
-        </is>
-      </c>
-      <c r="M15" s="2" t="inlineStr">
-        <is>
-          <t>-84,65; -39,96</t>
-        </is>
-      </c>
-      <c r="N15" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
+          <t>-84,33; -40,74</t>
         </is>
       </c>
     </row>
@@ -1484,62 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-6,1</t>
+          <t>-6,03</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-9,2</t>
+          <t>-8,93</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-10,51</t>
+          <t>-10,21</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>-6,48</t>
+          <t>-8,71</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>-9,11</t>
+          <t>-10,07</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>-10,08</t>
+          <t>-11,22</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>-11,47</t>
+          <t>-7,4</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>-5,96</t>
+          <t>-9,51</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>-7,64</t>
-        </is>
-      </c>
-      <c r="L16" s="2" t="inlineStr">
-        <is>
-          <t>-9,65</t>
-        </is>
-      </c>
-      <c r="M16" s="2" t="inlineStr">
-        <is>
-          <t>-11,0</t>
-        </is>
-      </c>
-      <c r="N16" s="2" t="inlineStr">
-        <is>
-          <t>-6,26</t>
+          <t>-10,72</t>
         </is>
       </c>
     </row>
@@ -1552,62 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-8,75; -3,46</t>
+          <t>-8,69; -3,44</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-11,52; -7,0</t>
+          <t>-11,49; -6,33</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-12,94; -8,35</t>
+          <t>-12,74; -7,61</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-9,15; -3,52</t>
+          <t>-11,39; -5,91</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-11,89; -6,54</t>
+          <t>-12,57; -7,7</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-12,29; -7,43</t>
+          <t>-13,86; -8,61</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-13,81; -9,0</t>
+          <t>-9,41; -5,42</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-8,87; -3,23</t>
+          <t>-11,27; -7,84</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-9,51; -5,68</t>
-        </is>
-      </c>
-      <c r="L17" s="2" t="inlineStr">
-        <is>
-          <t>-11,42; -8,01</t>
-        </is>
-      </c>
-      <c r="M17" s="2" t="inlineStr">
-        <is>
-          <t>-12,58; -9,38</t>
-        </is>
-      </c>
-      <c r="N17" s="2" t="inlineStr">
-        <is>
-          <t>-8,26; -4,01</t>
+          <t>-12,51; -8,99</t>
         </is>
       </c>
     </row>
@@ -1620,62 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>-40,62%</t>
+          <t>-40,13%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>-61,21%</t>
+          <t>-59,45%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>-69,92%</t>
+          <t>-67,97%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>-43,09%</t>
+          <t>-44,76%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>-46,8%</t>
+          <t>-51,72%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>-51,8%</t>
+          <t>-57,66%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>-58,91%</t>
+          <t>-42,8%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>-30,6%</t>
+          <t>-55,0%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>-44,18%</t>
-        </is>
-      </c>
-      <c r="L18" s="2" t="inlineStr">
-        <is>
-          <t>-55,8%</t>
-        </is>
-      </c>
-      <c r="M18" s="2" t="inlineStr">
-        <is>
-          <t>-63,58%</t>
-        </is>
-      </c>
-      <c r="N18" s="2" t="inlineStr">
-        <is>
-          <t>-36,19%</t>
+          <t>-62,02%</t>
         </is>
       </c>
     </row>
@@ -1688,74 +1439,66 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-52,85; -23,23</t>
+          <t>-53,1; -24,75</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-70,4; -50,71</t>
+          <t>-69,45; -45,63</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-77,87; -59,93</t>
+          <t>-76,48; -55,85</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-55,98; -25,09</t>
+          <t>-54,67; -32,62</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-56,9; -35,27</t>
+          <t>-59,61; -41,83</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-58,67; -40,69</t>
+          <t>-66,5; -47,49</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-66,15; -49,36</t>
+          <t>-51,14; -33,04</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-42,8; -17,19</t>
+          <t>-61,79; -48,02</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-52,13; -34,66</t>
-        </is>
-      </c>
-      <c r="L19" s="2" t="inlineStr">
-        <is>
-          <t>-61,92; -48,81</t>
-        </is>
-      </c>
-      <c r="M19" s="2" t="inlineStr">
-        <is>
-          <t>-69,45; -57,06</t>
-        </is>
-      </c>
-      <c r="N19" s="2" t="inlineStr">
-        <is>
-          <t>-44,81; -24,26</t>
+          <t>-68,68; -54,83</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="A4:A7"/>
+    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
+    <mergeCell ref="F1:H1"/>
     <mergeCell ref="A12:A15"/>
+    <mergeCell ref="I1:K1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="K1:N1"/>
     <mergeCell ref="A16:A19"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
